--- a/进度2 4.xlsx
+++ b/进度2 4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\deng\deng\MD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1497511-37C2-4671-92C0-753CA631521C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E060B94-F335-4DC5-BDA1-F618B9C2133D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="960" windowWidth="19125" windowHeight="14760" xr2:uid="{D9BF6A36-7952-4EB6-972D-C051657E8B8F}"/>
+    <workbookView xWindow="2130" yWindow="375" windowWidth="19125" windowHeight="14760" xr2:uid="{D9BF6A36-7952-4EB6-972D-C051657E8B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1076,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99186CD2-17EE-4EF9-A693-EB01F884CF73}">
   <dimension ref="A2:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
